--- a/biology/Zoologie/Acilius_sulcatus/Acilius_sulcatus.xlsx
+++ b/biology/Zoologie/Acilius_sulcatus/Acilius_sulcatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acilius sulcatus est une espèce d'insectes coléoptères aquatiques dulçaquicoles de la famille des dytiscidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dimorphisme sexuel prononcé : le mâle présente des élytres lisses tandis que ceux de la femelle sont munis de côtes séparées par des rangées de poils serrés. Les dessins noirs du pronotum et des élytres peuvent varier.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Presque toute l'Europe, de l'Espagne à la Scandinavie, à la Russie ; Moyen Orient, Afrique du Nord.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans des mares, dans des eaux stagnantes ou à faible courant, parfois même dans les abreuvoirs à bestiaux. 
 </t>
